--- a/public/post/genji-ko_files/genjiko.xlsx
+++ b/public/post/genji-ko_files/genjiko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oloon\OneDrive\Desktop\projects\oranlooney.com\static\post\genji-ko_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07555F8-7032-4AC5-9CA0-F874C6A6B602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA8DCF-57A8-403C-92CE-39D4DC00383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{651CDDFB-B79B-4171-AD4F-310ADDE2961C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D7327AB5-ABD1-4024-8974-0494430BFBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="311">
   <si>
     <t>Chapter</t>
   </si>
@@ -53,6 +53,12 @@
     <t>Partition</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
     <t>Color</t>
   </si>
   <si>
@@ -62,9 +68,6 @@
     <t>Hōkigi</t>
   </si>
   <si>
-    <t>The Broom-Tree</t>
-  </si>
-  <si>
     <t>[{1}, {2}, {3}, {4}, {5}]</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
     <t>Yūgao</t>
   </si>
   <si>
-    <t>Yugao</t>
-  </si>
-  <si>
     <t>[{1}, {2}, {3, 4}, {5}]</t>
   </si>
   <si>
@@ -116,7 +116,7 @@
     <t>Wakamurasaki</t>
   </si>
   <si>
-    <t>Murasaki</t>
+    <t>Young Murasaki</t>
   </si>
   <si>
     <t>[{1}, {2, 3}, {4, 5}]</t>
@@ -134,7 +134,7 @@
     <t>Suetsumuhana</t>
   </si>
   <si>
-    <t>The Saffron-Flower</t>
+    <t>The Saffron Flower</t>
   </si>
   <si>
     <t>[{1, 2, 3, 4}, {5}]</t>
@@ -347,7 +347,7 @@
     <t>Matsukaze</t>
   </si>
   <si>
-    <t>The Wind in the Pine-Trees</t>
+    <t>The Wind in the Pine Trees</t>
   </si>
   <si>
     <t>[{1, 2}, {3, 4}, {5}]</t>
@@ -593,7 +593,7 @@
     <t>Umegae</t>
   </si>
   <si>
-    <t>The Spray of Plum-Blossom</t>
+    <t>The Spray of Plum Blossom</t>
   </si>
   <si>
     <t>[{1, 2, 3, 5}, {4}]</t>
@@ -716,9 +716,6 @@
     <t>Yūgiri</t>
   </si>
   <si>
-    <t>Yugiri</t>
-  </si>
-  <si>
     <t>[{1, 4}, {2}, {3, 5}]</t>
   </si>
   <si>
@@ -788,9 +785,6 @@
     <t>Kōbai</t>
   </si>
   <si>
-    <t>Kobai</t>
-  </si>
-  <si>
     <t>[{1}, {2, 5}, {3}, {4}]</t>
   </si>
   <si>
@@ -842,7 +836,7 @@
     <t>Shiigamoto</t>
   </si>
   <si>
-    <t>At the Foot of the Oak-Tree</t>
+    <t>At the Foot of the Oak Tree</t>
   </si>
   <si>
     <t>[{1, 4}, {2, 3}, {5}]</t>
@@ -875,7 +869,7 @@
     <t>Sawarabi</t>
   </si>
   <si>
-    <t>Fern-Shoots</t>
+    <t>Fern Shoots</t>
   </si>
   <si>
     <t>[{1, 2}, {3, 5}, {4}]</t>
@@ -944,7 +938,7 @@
     <t>Kagerō</t>
   </si>
   <si>
-    <t>The Gossamer-Fly</t>
+    <t>The Gossamer Fly</t>
   </si>
   <si>
     <t>[{1, 3, 5}, {2, 4}]</t>
@@ -962,9 +956,6 @@
     <t>Tenarai</t>
   </si>
   <si>
-    <t>Writing-Practice</t>
-  </si>
-  <si>
     <t>[{1, 2, 3, 4, 5}]</t>
   </si>
   <si>
@@ -974,10 +965,10 @@
     <t>[(1.0, {1, 2, 3, 4, 5})]</t>
   </si>
   <si>
-    <t>Genji-mon</t>
-  </si>
-  <si>
-    <t>Genjiko Layout</t>
+    <t>Writing Practice</t>
+  </si>
+  <si>
+    <t>The Broom Tree</t>
   </si>
 </sst>
 </file>
@@ -1366,20 +1357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD04744-F2FE-4E7A-9232-B6CC9010E553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3236A21-C21F-4248-8DF9-F876EF943058}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,25 +1405,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1439,25 +1431,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1483,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1587,7 +1579,7 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,7 +1605,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,7 +1631,7 @@
         <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1665,7 +1657,7 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1717,7 +1709,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,7 +1735,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1769,7 +1761,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1787,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1847,7 +1839,7 @@
         <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,7 +1865,7 @@
         <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1891,7 @@
         <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,7 +1917,7 @@
         <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,7 +1943,7 @@
         <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,7 +1995,7 @@
         <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,7 +2021,7 @@
         <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2055,7 +2047,7 @@
         <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,7 +2073,7 @@
         <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,7 +2099,7 @@
         <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2133,7 +2125,7 @@
         <v>171</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2159,7 +2151,7 @@
         <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,7 +2177,7 @@
         <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,7 +2203,7 @@
         <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2237,7 +2229,7 @@
         <v>194</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2263,7 +2255,7 @@
         <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,7 +2281,7 @@
         <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2315,7 +2307,7 @@
         <v>211</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2341,7 +2333,7 @@
         <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2367,7 +2359,7 @@
         <v>223</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2381,16 +2373,16 @@
         <v>225</v>
       </c>
       <c r="D39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
         <v>226</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>227</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>228</v>
-      </c>
-      <c r="G39" t="s">
-        <v>229</v>
       </c>
       <c r="H39" t="s">
         <v>71</v>
@@ -2401,25 +2393,25 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
         <v>230</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>231</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>232</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>233</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>234</v>
       </c>
-      <c r="G40" t="s">
-        <v>235</v>
-      </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,25 +2419,25 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
         <v>236</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>237</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>238</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>239</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>240</v>
       </c>
-      <c r="G41" t="s">
-        <v>241</v>
-      </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,22 +2445,22 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s">
         <v>242</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>243</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>244</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>245</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>246</v>
-      </c>
-      <c r="G42" t="s">
-        <v>247</v>
       </c>
       <c r="H42" t="s">
         <v>71</v>
@@ -2479,25 +2471,25 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" t="s">
         <v>248</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" t="s">
         <v>249</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>250</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>251</v>
       </c>
-      <c r="F43" t="s">
-        <v>252</v>
-      </c>
-      <c r="G43" t="s">
-        <v>253</v>
-      </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,25 +2497,25 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" t="s">
         <v>254</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>255</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>256</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>257</v>
       </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" t="s">
-        <v>259</v>
-      </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,25 +2523,25 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" t="s">
         <v>260</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>261</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>262</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>263</v>
       </c>
-      <c r="F45" t="s">
-        <v>264</v>
-      </c>
-      <c r="G45" t="s">
-        <v>265</v>
-      </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,25 +2549,25 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" t="s">
         <v>266</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>267</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>268</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>269</v>
       </c>
-      <c r="F46" t="s">
-        <v>270</v>
-      </c>
-      <c r="G46" t="s">
-        <v>271</v>
-      </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,25 +2575,25 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s">
         <v>272</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>273</v>
       </c>
-      <c r="D47" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>274</v>
       </c>
-      <c r="F47" t="s">
-        <v>275</v>
-      </c>
-      <c r="G47" t="s">
-        <v>276</v>
-      </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2609,25 +2601,25 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" t="s">
         <v>277</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>278</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>279</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>280</v>
       </c>
-      <c r="F48" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" t="s">
-        <v>282</v>
-      </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,25 +2627,25 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" t="s">
         <v>283</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>284</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>285</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>286</v>
       </c>
-      <c r="F49" t="s">
-        <v>287</v>
-      </c>
-      <c r="G49" t="s">
-        <v>288</v>
-      </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,25 +2653,25 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" t="s">
         <v>289</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>290</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>291</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>292</v>
       </c>
-      <c r="F50" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" t="s">
-        <v>294</v>
-      </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2687,25 +2679,25 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s">
         <v>295</v>
       </c>
-      <c r="C51" t="s">
+      <c r="F51" t="s">
         <v>296</v>
       </c>
-      <c r="D51" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>297</v>
       </c>
-      <c r="F51" t="s">
-        <v>298</v>
-      </c>
-      <c r="G51" t="s">
-        <v>299</v>
-      </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2713,25 +2705,25 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" t="s">
         <v>300</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>301</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>302</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="F52" t="s">
-        <v>304</v>
-      </c>
-      <c r="G52" t="s">
-        <v>305</v>
-      </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2739,32 +2731,28 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" t="s">
         <v>306</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F53" t="s">
         <v>307</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>308</v>
       </c>
-      <c r="E53" t="s">
-        <v>309</v>
-      </c>
-      <c r="F53" t="s">
-        <v>310</v>
-      </c>
-      <c r="G53" t="s">
-        <v>311</v>
-      </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F53" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/post/genji-ko_files/genjiko.xlsx
+++ b/public/post/genji-ko_files/genjiko.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oloon\OneDrive\Desktop\projects\oranlooney.com\static\post\genji-ko_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA8DCF-57A8-403C-92CE-39D4DC00383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F12395-D64D-4A6A-92E6-6242EAA23331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D7327AB5-ABD1-4024-8974-0494430BFBDE}"/>
   </bookViews>
@@ -611,9 +611,6 @@
     <t>Fuji no uraba</t>
   </si>
   <si>
-    <t>Fuji no Uraba</t>
-  </si>
-  <si>
     <t>[{1}, {2, 5}, {3, 4}]</t>
   </si>
   <si>
@@ -969,6 +966,9 @@
   </si>
   <si>
     <t>The Broom Tree</t>
+  </si>
+  <si>
+    <t>Wisteria Leaves</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2217,16 +2217,16 @@
         <v>190</v>
       </c>
       <c r="D33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" t="s">
         <v>191</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>192</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>193</v>
-      </c>
-      <c r="G33" t="s">
-        <v>194</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -2237,22 +2237,22 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
         <v>195</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>196</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>197</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>198</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>199</v>
-      </c>
-      <c r="G34" t="s">
-        <v>200</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -2263,22 +2263,22 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
         <v>201</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>202</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>203</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>204</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>205</v>
-      </c>
-      <c r="G35" t="s">
-        <v>206</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -2289,22 +2289,22 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
         <v>207</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
         <v>208</v>
       </c>
-      <c r="D36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>209</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>210</v>
-      </c>
-      <c r="G36" t="s">
-        <v>211</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2315,22 +2315,22 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" t="s">
         <v>212</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>213</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>214</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>215</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>216</v>
-      </c>
-      <c r="G37" t="s">
-        <v>217</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2341,22 +2341,22 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
         <v>218</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>219</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>220</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>221</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>222</v>
-      </c>
-      <c r="G38" t="s">
-        <v>223</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2367,22 +2367,22 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
         <v>224</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" t="s">
         <v>225</v>
       </c>
-      <c r="D39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>226</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>227</v>
-      </c>
-      <c r="G39" t="s">
-        <v>228</v>
       </c>
       <c r="H39" t="s">
         <v>71</v>
@@ -2393,22 +2393,22 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
         <v>229</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>230</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>231</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>232</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>233</v>
-      </c>
-      <c r="G40" t="s">
-        <v>234</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2419,22 +2419,22 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" t="s">
         <v>235</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>236</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>237</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>238</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>239</v>
-      </c>
-      <c r="G41" t="s">
-        <v>240</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2445,22 +2445,22 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" t="s">
         <v>241</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>242</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>243</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>244</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>245</v>
-      </c>
-      <c r="G42" t="s">
-        <v>246</v>
       </c>
       <c r="H42" t="s">
         <v>71</v>
@@ -2471,22 +2471,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
         <v>247</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
         <v>248</v>
       </c>
-      <c r="D43" t="s">
-        <v>248</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>249</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>250</v>
-      </c>
-      <c r="G43" t="s">
-        <v>251</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2497,22 +2497,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
         <v>252</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>253</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>254</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>255</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>256</v>
-      </c>
-      <c r="G44" t="s">
-        <v>257</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2523,22 +2523,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
         <v>258</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>259</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>260</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>261</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>262</v>
-      </c>
-      <c r="G45" t="s">
-        <v>263</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2549,22 +2549,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
         <v>264</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>265</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>266</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>267</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>268</v>
-      </c>
-      <c r="G46" t="s">
-        <v>269</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2575,22 +2575,22 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" t="s">
         <v>270</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" t="s">
         <v>271</v>
       </c>
-      <c r="D47" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>272</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>273</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2601,22 +2601,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
         <v>275</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>276</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>277</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>278</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>279</v>
-      </c>
-      <c r="G48" t="s">
-        <v>280</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2627,22 +2627,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
         <v>281</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>282</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>283</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>284</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>285</v>
-      </c>
-      <c r="G49" t="s">
-        <v>286</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2653,22 +2653,22 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" t="s">
         <v>287</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>288</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>289</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>290</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>291</v>
-      </c>
-      <c r="G50" t="s">
-        <v>292</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2679,22 +2679,22 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s">
         <v>293</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" t="s">
         <v>294</v>
       </c>
-      <c r="D51" t="s">
-        <v>294</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>295</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>296</v>
-      </c>
-      <c r="G51" t="s">
-        <v>297</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2705,22 +2705,22 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" t="s">
         <v>298</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>299</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>300</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>301</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>302</v>
-      </c>
-      <c r="G52" t="s">
-        <v>303</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2731,22 +2731,22 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="s">
         <v>304</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" t="s">
         <v>305</v>
       </c>
-      <c r="D53" t="s">
-        <v>309</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>306</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>307</v>
-      </c>
-      <c r="G53" t="s">
-        <v>308</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
